--- a/Template/input_template_lebanon_cs.xlsx
+++ b/Template/input_template_lebanon_cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41CD77D-EBA8-5941-B855-7E35EA2E44E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF87BDD-0361-0F4B-BC23-1A241A534DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>model_inv_age</t>
   </si>
   <si>
-    <t>model_lg_inv</t>
-  </si>
-  <si>
     <t>CS2_CFA4.out</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>CS3_EFA.out</t>
+  </si>
+  <si>
+    <t>model_inv_lg</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1120,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -1135,133 +1135,133 @@
         <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Template/input_template_lebanon_cs.xlsx
+++ b/Template/input_template_lebanon_cs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF87BDD-0361-0F4B-BC23-1A241A534DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36C58E-C9F5-7A4F-9921-4C34C053CBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="text" sheetId="1" r:id="rId1"/>
+    <sheet name="path" sheetId="1" r:id="rId1"/>
     <sheet name="subscale" sheetId="3" r:id="rId2"/>
     <sheet name="model" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>model_file_path</t>
   </si>
@@ -80,9 +80,6 @@
     <t>data_file_path</t>
   </si>
   <si>
-    <t>~/Box/3EA Analysis/3EA Lebanon_Analysis/Lebanon_Y1_FA/LBY1_PREIMPUTED_FULL_SPREAD_10-31-2019_mplus.dta</t>
-  </si>
-  <si>
     <t>HB1_AD_1</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>CS123_CFA4_inv_scalar.out</t>
   </si>
   <si>
-    <t>~/Box/For Zezhen/MR automation/Test Data</t>
-  </si>
-  <si>
     <t>model_efa</t>
   </si>
   <si>
@@ -432,6 +426,18 @@
   </si>
   <si>
     <t>model_inv_lg</t>
+  </si>
+  <si>
+    <t>fs_data_file_path</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Box/Box 3EA Team Folder/For Zezhen/MR automation/Test Data</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Box/Box 3EA Team Folder/3EA Analysis/3EA Lebanon_Analysis/Lebanon_Y1_FA/LBY1_PREIMPUTED_FULL_SPREAD_10-31-2019_mplus.dta</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Box/Box 3EA Team Folder/For Zezhen/MR automation/Test Data/CS123_fscores.csv</t>
   </si>
 </sst>
 </file>
@@ -783,19 +789,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27BFF5F-7205-9748-9F48-9C16FDA3EB73}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -803,18 +810,24 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276D3E0-CD11-5045-8B57-1997DA2EBF68}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0"/>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -838,34 +853,34 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -873,37 +888,37 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -911,37 +926,37 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
       <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -949,37 +964,37 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
         <v>75</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -987,37 +1002,37 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
       <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1025,37 +1040,37 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1063,37 +1078,37 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601705C5-50A2-7A46-BFF2-1E1E17DB5A98}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+    <sheetView zoomScale="209" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1120,148 +1135,148 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Template/input_template_lebanon_cs.xlsx
+++ b/Template/input_template_lebanon_cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36C58E-C9F5-7A4F-9921-4C34C053CBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900A547-A4F0-F746-86B7-5AFBBDB98396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="path" sheetId="1" r:id="rId1"/>
     <sheet name="subscale" sheetId="3" r:id="rId2"/>
     <sheet name="model" sheetId="4" r:id="rId3"/>
+    <sheet name="description" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>model_file_path</t>
   </si>
@@ -438,6 +439,63 @@
   </si>
   <si>
     <t>/Users/michaelfive/Box/Box 3EA Team Folder/For Zezhen/MR automation/Test Data/CS123_fscores.csv</t>
+  </si>
+  <si>
+    <t>Constructs</t>
+  </si>
+  <si>
+    <t>Hostile attribution bias (AB)</t>
+  </si>
+  <si>
+    <t>Anger dysregulation (AD)</t>
+  </si>
+  <si>
+    <t>Sadness dysregulation (SD)</t>
+  </si>
+  <si>
+    <t>Aggression (AR)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>the tendency to interpret the behavior of others as hostile in intent when it may be ambiguous or benign</t>
+  </si>
+  <si>
+    <t>the ability of a child to modulate the expression of anger emotions in socially challenging situations</t>
+  </si>
+  <si>
+    <t>the ability of a child to modulate the expression of sadness emotions in socially challenging situations</t>
+  </si>
+  <si>
+    <t>aggressive behavior evoked by provocation</t>
+  </si>
+  <si>
+    <t>Hypothetical scenarios with ambiguous social situations</t>
+  </si>
+  <si>
+    <t>Story 1: Imagine that you are walking to school, and you’re carrying a brand new notebook. You love how clean and new your notebook looks. All of a sudden, you are bumped from behind by another child. You stumble and your notebook falls into the dirt. When you pick it up, it is all dirty and smudged.</t>
+  </si>
+  <si>
+    <t>Story 2: Imagine that you have finished a beautiful drawing for school. You’ve worked on it for a long time and you’re really proud of it. Another child comes over to look at your drawing. The child is holding a juice box. You turn away for a minute and when you look back the child has spilled juice all over your art project. You worked on the project for a long time and now it’s messed up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story 3: Imagine that you are eating your lunch at school. A boy bumps into your arm, and you drop your food and it gets spilled all over the floor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story 4: Imagine that a girl standing next to you drinking water during break. The next thing you know, the girl has splashed some water on your face. </t>
+  </si>
+  <si>
+    <t>Story 5: Imagine that you are working on a math assignment at your desk. You go to sharpen your pencil, and as you walk back to your desk there is a boy walking just in front of you. The boy passes your desk before you get there. The next thing you know, the boy has knocked all of your papers off of your desk, and they are all over the floor.</t>
+  </si>
+  <si>
+    <t>Story 6: Imagine that you are standing on a chair in your classroom trying to hang on the wall a picture you have drawn. A girl comes over towards you and runs into the leg of your chair. You slip and the picture you have worked on a long time gets ripped really badly.</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>Children's Stories</t>
   </si>
 </sst>
 </file>
@@ -473,8 +531,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,44 +848,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27BFF5F-7205-9748-9F48-9C16FDA3EB73}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -840,7 +906,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,4 +1348,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00BDE4A-B23E-D74E-B079-4C6B081190E9}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>